--- a/doc/user-guide/examples/resource/resource-tool.xlsx
+++ b/doc/user-guide/examples/resource/resource-tool.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\community\doc\user-guide\cookbook\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community\doc\user-guide\examples\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BF0C7E-D76B-4262-B8E4-74DA3B90FEF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="3398" windowWidth="17280" windowHeight="8963" tabRatio="792"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <sheet name="operation" sheetId="11" r:id="rId9"/>
     <sheet name="parameter" sheetId="19" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -366,12 +365,18 @@
   </si>
   <si>
     <t>fixed quantity</t>
+  </si>
+  <si>
+    <t>subcategory</t>
+  </si>
+  <si>
+    <t>tool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,23 +503,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -550,23 +538,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -742,19 +713,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -767,8 +738,11 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -781,8 +755,11 @@
       <c r="D2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -796,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -810,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -824,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -838,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -852,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -866,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -880,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -894,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -908,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -922,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -936,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -950,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -964,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -978,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -998,21 +975,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="85.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" customWidth="1"/>
+    <col min="3" max="3" width="85.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1034,7 +1011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1045,7 +1022,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1062,20 +1039,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1119,7 +1096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1169,19 +1146,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1203,24 +1180,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1231,20 +1208,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1250,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1302,7 +1279,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1331,7 +1308,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1360,7 +1337,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1389,7 +1366,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1418,7 +1395,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -1447,7 +1424,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1476,7 +1453,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -1505,7 +1482,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1534,7 +1511,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -1563,7 +1540,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1592,7 +1569,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -1621,7 +1598,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1650,7 +1627,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -1679,7 +1656,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -1708,7 +1685,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1737,7 +1714,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -1766,7 +1743,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -1795,7 +1772,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -1824,7 +1801,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -1853,7 +1830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -1882,7 +1859,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -1911,7 +1888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -1940,7 +1917,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -1969,7 +1946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -1998,7 +1975,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -2027,7 +2004,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -2062,22 +2039,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C32" sqref="C32:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2094,7 +2071,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2108,7 +2085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2122,7 +2099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2136,7 +2113,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2150,7 +2127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -2164,7 +2141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2178,7 +2155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2192,7 +2169,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -2206,7 +2183,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -2220,7 +2197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2234,7 +2211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -2248,7 +2225,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2262,7 +2239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -2276,7 +2253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -2290,7 +2267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -2304,7 +2281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2318,7 +2295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -2332,7 +2309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -2346,7 +2323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -2360,7 +2337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -2374,7 +2351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -2388,7 +2365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -2402,7 +2379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -2416,7 +2393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -2430,7 +2407,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -2444,7 +2421,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2458,7 +2435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2472,7 +2449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2486,7 +2463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2500,7 +2477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -2514,7 +2491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -2528,7 +2505,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -2542,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -2556,7 +2533,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -2570,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -2584,7 +2561,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -2604,100 +2581,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -2708,20 +2685,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2729,7 +2706,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2743,25 +2720,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2784,7 +2761,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2808,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2832,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2856,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2880,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -2904,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2928,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2952,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -2976,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -3000,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -3024,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -3048,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -3072,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3096,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3120,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -3144,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -3165,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -3186,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>67</v>
       </c>
